--- a/outputs-GTDB-r202/g__UBA3789.xlsx
+++ b/outputs-GTDB-r202/g__UBA3789.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>s__UBA3789 sp902776735</t>
+          <t>s__UBA3789 sp902776735(reject)</t>
         </is>
       </c>
     </row>
